--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ОРПО (Средний возраст)/ВСЕ ПРЕДПРИЯТИЯ ОРПО_LAR (Средний возраст)(02.09.2015 0-01-01).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ОРПО (Средний возраст)/ВСЕ ПРЕДПРИЯТИЯ ОРПО_LAR (Средний возраст)(02.09.2015 0-01-01).xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ОРПО (Средний возраст)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -87,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -162,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,6 +166,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -231,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,17 +446,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -484,22 +489,22 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>3.6105424762137465E-5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>3.8459109554943953E-5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>7.4564534317081411E-5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>1.2136421564786769E-4</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>1.2989372801867379E-4</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>2.5125794366654146E-4</v>
       </c>
     </row>
@@ -507,22 +512,22 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>3.3799543009647378E-5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>4.5728117007658709E-5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>7.9527660017306081E-5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>1.136829632702547E-4</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>1.3838016984167147E-4</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>2.5206313311192617E-4</v>
       </c>
     </row>
@@ -530,22 +535,22 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>3.110273796611711E-5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>4.8717520836965124E-5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>7.9820258803082241E-5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>1.0618863403751186E-4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>1.4651702090343163E-4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>2.5270565494094348E-4</v>
       </c>
     </row>
@@ -553,22 +558,22 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>2.8424195891307367E-5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>4.3480107620198923E-5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>7.1904303511506287E-5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>9.9539670209373063E-5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>1.3086737889201093E-4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>2.30407049101384E-4</v>
       </c>
     </row>
@@ -576,22 +581,22 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>2.5670043435646135E-5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>4.4135677608488054E-5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>6.980572104413419E-5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>9.4434470308160754E-5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>1.4210926328319206E-4</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>2.3654373359135281E-4</v>
       </c>
     </row>
@@ -599,22 +604,22 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>2.1457384288213448E-5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>4.2990592479394681E-5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>6.4447976767608123E-5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>7.9746001478635755E-5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>1.5087738880509101E-4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>2.3062339028372678E-4</v>
       </c>
     </row>
@@ -622,22 +627,22 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>1.5764281857507071E-5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>4.1118285433825869E-5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>5.6882567291332943E-5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>5.5259774922468642E-5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>1.5345612958584504E-4</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>2.0871590450831368E-4</v>
       </c>
     </row>
@@ -645,22 +650,22 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>1.024791715342886E-5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>3.3698051390507072E-5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>4.3945968543935931E-5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>3.4652797820591228E-5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>9.0139692755361253E-5</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>1.2479249057595248E-4</v>
       </c>
     </row>
@@ -668,22 +673,22 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>9.2204724973197259E-6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>2.5974226931036173E-5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>3.5194699428355899E-5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>3.5231295153846901E-5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>6.2600694656728532E-5</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>9.7831989810575427E-5</v>
       </c>
     </row>
@@ -691,22 +696,22 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>6.4300905487265676E-6</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>1.7448716059831167E-5</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>2.3878806608557735E-5</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>2.1318659066584061E-5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>4.2801089640870911E-5</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>6.4119748707454975E-5</v>
       </c>
     </row>
@@ -714,22 +719,22 @@
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>3.3241723622437144E-6</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>9.2127955229172356E-6</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>1.253696788516095E-5</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>1.0243874323795008E-5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>2.6607351716961478E-5</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <v>3.6851226040756483E-5</v>
       </c>
     </row>
@@ -737,334 +742,340 @@
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>2.3920000000000001E-5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>2.3090000000000001E-5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>4.6999999999999997E-5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>8.386E-5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>7.3120000000000005E-5</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>1.5698E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="7"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>2.7575078714269199E-5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>5.6196399492022771E-5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>8.377147820629197E-5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>8.3335522879035155E-5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>1.5976332821113703E-4</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>2.4309885109017218E-4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>2.3168255744839428E-5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>5.6717169527247227E-5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>7.9885425272086655E-5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>6.5287751236037448E-5</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>1.7399206519928614E-4</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>2.392798164353236E-4</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>2.4135581734814544E-5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>6.7949999274816725E-5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>9.2085581009631272E-5</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>5.8131671122899932E-5</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>1.7999312709182869E-4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>2.3812479821472862E-4</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>2.4450329134220178E-5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>5.9547597129915553E-5</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>8.3997926264135734E-5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>5.7837404545647045E-5</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>1.83381191251359E-4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>2.4121859579700604E-4</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>2.3235280057731265E-5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>6.6108570903211192E-5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>8.934385096094246E-5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>5.6009932206332321E-5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>1.9089725453138884E-4</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>2.4690718673772119E-4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>1.9843278605288379E-5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>7.7021989510432502E-5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>9.6865268115720884E-5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>5.5851666475772673E-5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>2.7307513270668577E-4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>3.2892679918245844E-4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>1.8380294980839441E-5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>9.9983027476697005E-5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>1.1836332245753644E-4</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>5.8567279227410999E-5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>3.5493285084161182E-4</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>4.1350013006902279E-4</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>1.3256894245299878E-5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>6.7339549052722314E-5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>8.059644329802219E-5</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>4.7880405996251391E-5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>1.7628680210399607E-4</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>2.2416720810024745E-4</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>9.2986082110118852E-6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>6.4444618953416103E-5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>7.374322716442799E-5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>3.1589536106872192E-5</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>1.5552847401682567E-4</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>1.8711801012369787E-4</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>1.4503758320742299E-5</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>5.5691562452089114E-5</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>7.0195320772831408E-5</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>7.5013566767942076E-5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>1.4244080738177623E-4</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>2.1745437414971832E-4</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>1.1302955897111839E-5</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <v>5.4518186817312395E-5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>6.5821142714424241E-5</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>3.0177165200670275E-5</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>1.2966724457366157E-4</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <v>1.5984440977433184E-4</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>2.018E-5</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>3.7049999999999999E-5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>5.7229999999999999E-5</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>5.5810000000000003E-5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>1.1681E-4</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>1.7263000000000001E-4</v>
       </c>
     </row>
